--- a/reports/resnet18_23_MMTM_1/report.xlsx
+++ b/reports/resnet18_23_MMTM_1/report.xlsx
@@ -627,85 +627,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7840240918501789</v>
+        <v>0.7349331827592697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05688366771155032</v>
+        <v>0.07800333648010199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.5035714285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1391720469583348</v>
+        <v>0.2196420505856916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8813553113553112</v>
+        <v>0.8507326007326006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08855070076964032</v>
+        <v>0.08443649414465855</v>
       </c>
       <c r="H2" t="n">
         <v>0.6956521739130435</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="U2" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="Z2" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AC2" t="n">
         <v>0.8571428571428571</v>
@@ -717,22 +717,22 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AH2" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/reports/resnet18_23_MMTM_1/report.xlsx
+++ b/reports/resnet18_23_MMTM_1/report.xlsx
@@ -627,85 +627,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7349331827592697</v>
+        <v>0.7511970638057595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07800333648010199</v>
+        <v>0.09847159125767115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5035714285714286</v>
+        <v>0.6071428571428572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2196420505856916</v>
+        <v>0.1751659401138353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8507326007326006</v>
+        <v>0.8231135531135532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08443649414465855</v>
+        <v>0.1307513249455999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="I2" t="n">
         <v>0.625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L2" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="M2" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R2" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="AA2" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AC2" t="n">
         <v>0.8571428571428571</v>
@@ -720,19 +720,19 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AI2" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
